--- a/branches/update-code-systems/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/update-code-systems/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T09:53:38+00:00</t>
+    <t>2023-03-14T11:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-code-systems/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/update-code-systems/StructureDefinition-HIV-lab-order.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="587">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T11:49:46+00:00</t>
+    <t>2023-03-24T12:30:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1258,6 +1258,21 @@
     <t>Procedure.procedureCode</t>
   </si>
   <si>
+    <t>ServiceRequest.code.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.text</t>
+  </si>
+  <si>
+    <t>Test Type</t>
+  </si>
+  <si>
     <t>ServiceRequest.orderDetail</t>
   </si>
   <si>
@@ -1618,6 +1633,21 @@
   </si>
   <si>
     <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonCode.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonCode.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonCode.coding</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonCode.text</t>
+  </si>
+  <si>
+    <t>Reason</t>
   </si>
   <si>
     <t>ServiceRequest.reasonReference</t>
@@ -2106,7 +2136,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO64"/>
+  <dimension ref="A1:AO72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7096,14 +7126,14 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>405</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -7112,20 +7142,18 @@
         <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>406</v>
+        <v>164</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -7150,13 +7178,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>409</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>410</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -7174,53 +7202,53 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>404</v>
+        <v>166</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>411</v>
+        <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>412</v>
+        <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>401</v>
+        <v>167</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>403</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>81</v>
@@ -7229,21 +7257,21 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>414</v>
+        <v>135</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>415</v>
+        <v>136</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7279,40 +7307,40 @@
         <v>81</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>413</v>
+        <v>174</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>412</v>
+        <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>418</v>
+        <v>167</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7323,10 +7351,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7334,10 +7362,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -7349,16 +7377,20 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>420</v>
+        <v>204</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>421</v>
+        <v>205</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7406,13 +7438,13 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>419</v>
+        <v>209</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
@@ -7421,35 +7453,35 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>423</v>
+        <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>424</v>
+        <v>210</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>425</v>
+        <v>211</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>426</v>
+        <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>427</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>429</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>89</v>
@@ -7464,16 +7496,20 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>430</v>
+        <v>163</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>431</v>
+        <v>262</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7482,7 +7518,7 @@
         <v>81</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>81</v>
+        <v>408</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>81</v>
@@ -7521,7 +7557,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>428</v>
+        <v>266</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7536,38 +7572,38 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>433</v>
+        <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>434</v>
+        <v>267</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>435</v>
+        <v>268</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>437</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>81</v>
@@ -7579,15 +7615,17 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>440</v>
+        <v>188</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7612,74 +7650,74 @@
         <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>81</v>
+        <v>370</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>81</v>
+        <v>415</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AC47" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>444</v>
+        <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>81</v>
+        <v>416</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>445</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>447</v>
+        <v>401</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>449</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>439</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>89</v>
@@ -7694,16 +7732,18 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7751,7 +7791,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7766,27 +7806,27 @@
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>445</v>
+        <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>449</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7794,7 +7834,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>89</v>
@@ -7809,13 +7849,13 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7842,13 +7882,13 @@
         <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>456</v>
+        <v>81</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>457</v>
+        <v>81</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>81</v>
@@ -7866,10 +7906,10 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>89</v>
@@ -7881,35 +7921,35 @@
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>428</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>431</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>459</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>89</v>
@@ -7924,13 +7964,13 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7981,7 +8021,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7996,31 +8036,31 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>468</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8039,17 +8079,15 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -8086,19 +8124,17 @@
         <v>81</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="AC51" s="2"/>
       <c r="AD51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8113,35 +8149,37 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>479</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="D52" t="s" s="2">
-        <v>481</v>
+        <v>444</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>89</v>
@@ -8156,17 +8194,15 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>188</v>
+        <v>445</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8191,13 +8227,13 @@
         <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>485</v>
+        <v>81</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>486</v>
+        <v>81</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>81</v>
@@ -8215,7 +8251,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>480</v>
+        <v>443</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8230,35 +8266,35 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>489</v>
+        <v>452</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>490</v>
+        <v>453</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>81</v>
+        <v>454</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>492</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>89</v>
@@ -8273,17 +8309,15 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>493</v>
+        <v>458</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>494</v>
+        <v>459</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -8308,13 +8342,13 @@
         <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>81</v>
+        <v>370</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>81</v>
+        <v>461</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>81</v>
+        <v>462</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
@@ -8332,13 +8366,13 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
@@ -8347,38 +8381,38 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>497</v>
+        <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>498</v>
+        <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>490</v>
+        <v>81</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>81</v>
+        <v>464</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>81</v>
+        <v>466</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>81</v>
@@ -8390,13 +8424,13 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>188</v>
+        <v>445</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>501</v>
+        <v>467</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8423,13 +8457,13 @@
         <v>81</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>503</v>
+        <v>81</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>504</v>
+        <v>81</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>81</v>
@@ -8447,13 +8481,13 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>81</v>
@@ -8462,38 +8496,38 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>81</v>
+        <v>469</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>81</v>
+        <v>470</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>81</v>
+        <v>473</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
@@ -8505,15 +8539,17 @@
         <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>507</v>
+        <v>476</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8562,13 +8598,13 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>81</v>
@@ -8577,38 +8613,38 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>81</v>
+        <v>480</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>81</v>
+        <v>481</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>81</v>
+        <v>484</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>81</v>
+        <v>486</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
@@ -8623,13 +8659,13 @@
         <v>188</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8655,11 +8691,13 @@
         <v>81</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y56" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="Z56" t="s" s="2">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>81</v>
@@ -8677,13 +8715,13 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>81</v>
@@ -8692,16 +8730,16 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
@@ -8709,21 +8747,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>81</v>
+        <v>497</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>81</v>
@@ -8735,16 +8773,16 @@
         <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8794,7 +8832,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8809,16 +8847,16 @@
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>81</v>
@@ -8826,10 +8864,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8849,16 +8887,16 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>528</v>
+        <v>188</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8885,13 +8923,13 @@
         <v>81</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>81</v>
+        <v>370</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>81</v>
+        <v>508</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>81</v>
+        <v>509</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>81</v>
@@ -8909,7 +8947,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8924,16 +8962,16 @@
         <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>531</v>
+        <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>532</v>
+        <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>81</v>
+        <v>495</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>81</v>
@@ -8941,14 +8979,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>535</v>
+        <v>81</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8964,20 +9002,18 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>537</v>
+        <v>506</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>539</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -9026,7 +9062,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9041,16 +9077,16 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>540</v>
+        <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>541</v>
+        <v>81</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>81</v>
+        <v>495</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>81</v>
@@ -9058,10 +9094,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9072,7 +9108,7 @@
         <v>89</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>81</v>
@@ -9084,16 +9120,16 @@
         <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>544</v>
+        <v>188</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>545</v>
+        <v>516</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9119,13 +9155,11 @@
         <v>81</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>81</v>
+        <v>519</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
@@ -9143,7 +9177,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9158,16 +9192,16 @@
         <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>81</v>
+        <v>520</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>549</v>
+        <v>522</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>81</v>
+        <v>523</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>81</v>
@@ -9175,21 +9209,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>551</v>
+        <v>81</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
@@ -9198,23 +9232,19 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>552</v>
+        <v>164</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>81</v>
       </c>
@@ -9238,13 +9268,13 @@
         <v>81</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>556</v>
+        <v>81</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>557</v>
+        <v>81</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
@@ -9262,53 +9292,53 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>550</v>
+        <v>166</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>548</v>
+        <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>558</v>
+        <v>167</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>559</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
@@ -9320,15 +9350,17 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>561</v>
+        <v>135</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9365,19 +9397,19 @@
         <v>81</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>560</v>
+        <v>174</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9389,30 +9421,30 @@
         <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>563</v>
+        <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>412</v>
+        <v>81</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>564</v>
+        <v>167</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>565</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>566</v>
+        <v>526</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>566</v>
+        <v>526</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9423,7 +9455,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -9435,16 +9467,20 @@
         <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>567</v>
+        <v>205</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9492,13 +9528,13 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>566</v>
+        <v>209</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
@@ -9510,10 +9546,10 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>412</v>
+        <v>210</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>569</v>
+        <v>211</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9524,10 +9560,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>570</v>
+        <v>527</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>570</v>
+        <v>527</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9538,7 +9574,7 @@
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>81</v>
@@ -9547,21 +9583,23 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>571</v>
+        <v>163</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>572</v>
+        <v>262</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>573</v>
+        <v>263</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>81</v>
       </c>
@@ -9570,7 +9608,7 @@
         <v>81</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>81</v>
+        <v>528</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>81</v>
@@ -9609,13 +9647,13 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>570</v>
+        <v>266</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>81</v>
@@ -9624,18 +9662,950 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO70" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="AL64" t="s" s="2">
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AM64" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO64" t="s" s="2">
+      <c r="AM72" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO72" t="s" s="2">
         <v>81</v>
       </c>
     </row>
